--- a/meta/17-5-1.xlsx
+++ b/meta/17-5-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t xml:space="preserve">17.5 Принять и применять режимы поощрения инвестиций в интересах наименее развитых стран </t>
   </si>
   <si>
-    <t>17.5.1 Число стран, в которых приняты и действуют режимы поощрения инвестиций в интересах наименее развитых стран</t>
-  </si>
-  <si>
     <t>Министерство экономки Кыргызской Республики</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>17.5.1 Число стран, в которых приняты и действуют режимы поощрения инвестиций в интересах развивающихся стран, включая наименее развитые страны</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="260.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
